--- a/tables/table_25.xlsx
+++ b/tables/table_25.xlsx
@@ -14,78 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
   </si>
   <si>
     <t>5.442</t>
   </si>
   <si>
+    <t>3,145</t>
+  </si>
+  <si>
+    <t>2,297</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>2,685</t>
+  </si>
+  <si>
+    <t>1,493</t>
+  </si>
+  <si>
+    <t>1,192</t>
+  </si>
+  <si>
+    <t>2,272</t>
+  </si>
+  <si>
+    <t>1,403</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
     <t>5.474</t>
   </si>
   <si>
-    <t>3,145</t>
-  </si>
-  <si>
     <t>3,157</t>
   </si>
   <si>
-    <t>2,297</t>
-  </si>
-  <si>
     <t>2,317</t>
   </si>
   <si>
-    <t>485</t>
-  </si>
-  <si>
     <t>471</t>
   </si>
   <si>
-    <t>249</t>
-  </si>
-  <si>
     <t>229</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>242</t>
   </si>
   <si>
-    <t>2,685</t>
-  </si>
-  <si>
     <t>2,825</t>
   </si>
   <si>
-    <t>1,493</t>
-  </si>
-  <si>
     <t>1,594</t>
   </si>
   <si>
-    <t>1,192</t>
-  </si>
-  <si>
     <t>1,231</t>
   </si>
   <si>
-    <t>2,272</t>
-  </si>
-  <si>
     <t>2,178</t>
   </si>
   <si>
-    <t>1,403</t>
-  </si>
-  <si>
     <t>1,334</t>
-  </si>
-  <si>
-    <t>869</t>
   </si>
   <si>
     <t>844</t>
@@ -446,98 +458,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
